--- a/Data/Header_and_Potentiometer.xlsx
+++ b/Data/Header_and_Potentiometer.xlsx
@@ -157,7 +157,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-7.6759311336082992E-2"/>
-                  <c:y val="-9.0496598372964615E-2"/>
+                  <c:y val="-9.0496598372964684E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -253,11 +253,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="96187136"/>
-        <c:axId val="115414144"/>
+        <c:axId val="137983872"/>
+        <c:axId val="137990144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96187136"/>
+        <c:axId val="137983872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -300,19 +300,19 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.75201209223847076"/>
-              <c:y val="0.91684908789386421"/>
+              <c:x val="0.75201209223847143"/>
+              <c:y val="0.91684908789386454"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115414144"/>
+        <c:crossAx val="137990144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="115414144"/>
+        <c:axId val="137990144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="250"/>
@@ -347,14 +347,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9841269841269847E-2"/>
-              <c:y val="3.8981470599757137E-2"/>
+              <c:x val="1.9841269841269861E-2"/>
+              <c:y val="3.8981470599757151E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96187136"/>
+        <c:crossAx val="137983872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -363,7 +363,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -385,20 +385,6 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
           <c:trendline>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
@@ -406,27 +392,10 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.755655543057118E-2"/>
-                  <c:y val="0.36739090972274979"/>
+                  <c:x val="8.1829396325459394E-2"/>
+                  <c:y val="0.26528251676873726"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" altLang="en-US" sz="1200" baseline="0"/>
-                      <a:t>y = 0.5963x + 365.74
-R² = 0.9773</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" altLang="en-US" sz="1200"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -440,40 +409,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>350</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>450</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>500</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>550</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>600</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -527,70 +496,31 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="120447360"/>
-        <c:axId val="120449664"/>
+        <c:axId val="138293248"/>
+        <c:axId val="138294784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="120447360"/>
+        <c:axId val="138293248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="600"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
-                  <a:t>Hedaer Height (mm)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120449664"/>
+        <c:crossAx val="138294784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120449664"/>
+        <c:axId val="138294784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
-                  <a:t>Potentiometer (AD value)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120447360"/>
+        <c:crossAx val="138293248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -599,7 +529,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -640,19 +570,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -957,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1077,7 +1007,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="B29" s="3">
         <v>377</v>
@@ -1085,7 +1015,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="B30">
         <v>415</v>
@@ -1093,7 +1023,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>150</v>
+        <v>0.15</v>
       </c>
       <c r="B31">
         <v>462</v>
@@ -1101,7 +1031,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="B32">
         <v>497</v>
@@ -1109,7 +1039,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>250</v>
+        <v>0.25</v>
       </c>
       <c r="B33">
         <v>533</v>
@@ -1117,7 +1047,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>300</v>
+        <v>0.3</v>
       </c>
       <c r="B34">
         <v>564</v>
@@ -1125,7 +1055,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>350</v>
+        <v>0.35</v>
       </c>
       <c r="B35">
         <v>597</v>
@@ -1133,7 +1063,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>400</v>
+        <v>0.4</v>
       </c>
       <c r="B36">
         <v>618</v>
@@ -1141,7 +1071,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>450</v>
+        <v>0.45</v>
       </c>
       <c r="B37">
         <v>643</v>
@@ -1149,7 +1079,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="B38">
         <v>658</v>
@@ -1157,7 +1087,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>550</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B39">
         <v>678</v>
@@ -1165,7 +1095,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>600</v>
+        <v>0.6</v>
       </c>
       <c r="B40" s="1">
         <v>694</v>

--- a/Data/Header_and_Potentiometer.xlsx
+++ b/Data/Header_and_Potentiometer.xlsx
@@ -157,7 +157,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-7.6759311336082992E-2"/>
-                  <c:y val="-9.0496598372964684E-2"/>
+                  <c:y val="-9.0496598372964643E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -253,11 +253,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="137983872"/>
-        <c:axId val="137990144"/>
+        <c:axId val="103153024"/>
+        <c:axId val="121267712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137983872"/>
+        <c:axId val="103153024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -300,19 +300,19 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.75201209223847143"/>
-              <c:y val="0.91684908789386454"/>
+              <c:x val="0.75201209223847099"/>
+              <c:y val="0.91684908789386432"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137990144"/>
+        <c:crossAx val="121267712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137990144"/>
+        <c:axId val="121267712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="250"/>
@@ -347,14 +347,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9841269841269861E-2"/>
-              <c:y val="3.8981470599757151E-2"/>
+              <c:x val="1.9841269841269851E-2"/>
+              <c:y val="3.8981470599757144E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137983872"/>
+        <c:crossAx val="103153024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -363,7 +363,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -385,6 +385,23 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+          </c:trendline>
           <c:trendline>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
@@ -392,8 +409,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.1829396325459394E-2"/>
-                  <c:y val="0.26528251676873726"/>
+                  <c:x val="-8.6952166693449032E-2"/>
+                  <c:y val="0.33014697278641247"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -496,31 +513,69 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="138293248"/>
-        <c:axId val="138294784"/>
+        <c:axId val="103163392"/>
+        <c:axId val="103165312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138293248"/>
+        <c:axId val="103163392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>Hedaer Height (m,)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138294784"/>
+        <c:crossAx val="103165312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138294784"/>
+        <c:axId val="103165312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                  <a:t>Potentiometer (AD value)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138293248"/>
+        <c:crossAx val="103163392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -570,19 +625,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -887,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
